--- a/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,15 +22,30 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>009459</t>
+  </si>
+  <si>
+    <t>675053</t>
+  </si>
+  <si>
+    <t>009999</t>
+  </si>
+  <si>
     <t>004244</t>
   </si>
   <si>
@@ -40,16 +55,16 @@
     <t>004006</t>
   </si>
   <si>
-    <t>009459</t>
-  </si>
-  <si>
-    <t>675053</t>
-  </si>
-  <si>
     <t>675093</t>
   </si>
   <si>
-    <t>009999</t>
+    <t>创金合信季安鑫3个月持有期债券C</t>
+  </si>
+  <si>
+    <t>西部利得合赢债券C</t>
+  </si>
+  <si>
+    <t>东方中国红利混合</t>
   </si>
   <si>
     <t>东方周期优选灵活配置混合</t>
@@ -61,34 +76,55 @@
     <t>东方民丰回报赢安混合C</t>
   </si>
   <si>
-    <t>创金合信季安鑫3个月持有期债券C</t>
-  </si>
-  <si>
-    <t>西部利得合赢债券C</t>
-  </si>
-  <si>
     <t>西部利得祥逸债券C</t>
   </si>
   <si>
-    <t>东方中国红利混合</t>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>28.63</t>
+  </si>
+  <si>
+    <t>79.40</t>
   </si>
   <si>
     <t>80.99</t>
   </si>
   <si>
-    <t>28.63</t>
-  </si>
-  <si>
-    <t>79.40</t>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>5.36</t>
   </si>
   <si>
     <t>4.49</t>
   </si>
   <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>5.36</t>
+    <t>0.0660</t>
+  </si>
+  <si>
+    <t>0.0455</t>
+  </si>
+  <si>
+    <t>0.0440</t>
+  </si>
+  <si>
+    <t>0.0126</t>
+  </si>
+  <si>
+    <t>0.0002</t>
   </si>
 </sst>
 </file>
@@ -446,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,145 +504,187 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1225,4 +1226,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2500</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1864</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5996</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2270,4 +2271,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2279,7 +2280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,17 +2291,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2310,14 +2331,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.9</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2326,14 +2369,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.53</v>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2342,13 +2407,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2640,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,17 +2652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2671,14 +2692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.22</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2687,14 +2730,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.9</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1638</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2703,14 +2768,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.53</v>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2719,13 +2806,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2925,7 +2926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2936,17 +2937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2956,14 +2977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.09</v>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2972,14 +3015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.22</v>
       </c>
     </row>
     <row r="4">
@@ -2988,14 +3053,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.9</v>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3004,14 +3091,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.53</v>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3020,13 +3129,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,305 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009459</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信季安鑫3个月持有期债券C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0660</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>675053</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>西部利得合赢债券C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009999</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方中国红利混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004244</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方民丰回报赢安混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方民丰回报赢安混合C</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>675093</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>西部利得祥逸债券C</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+      <c r="D7" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -764,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -815,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007449</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全多维价值混合A</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.09</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5843</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -853,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>206008</t>
+          <t>013774</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华丰盛债券</t>
+          <t>易方达趋势优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.36</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>70.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2967</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -891,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160612</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华丰收债券</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.92</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.63</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2957</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -929,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007450</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴全多维价值混合C</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.09</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -967,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000054</t>
+          <t>013775</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华双债增利债券</t>
+          <t>易方达趋势优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.27</t>
+          <t>70.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1005,226 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160323</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏磐泰混合（LOF）</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.30</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0539</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>400013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方成长收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>51.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007687</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方成长收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>51.59</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009999</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方中国红利混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006230</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华研究驱动混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1289,36 +923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007689</t>
+          <t>006736</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银新能源混合A</t>
+          <t>国投瑞银先进制造混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.42</t>
+          <t>41.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9148</t>
+          <t>1.5758</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1327,36 +961,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>001704</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>国投瑞银进宝灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45.29</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9429</t>
+          <t>1.1638</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1365,36 +999,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006736</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银先进制造混合</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.43</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4723</t>
+          <t>0.1564</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1403,36 +1037,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.85</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.24</t>
+          <t>98.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2500</t>
+          <t>0.0888</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1441,36 +1075,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007690</t>
+          <t>770001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银新能源混合C</t>
+          <t>德邦优化灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33.14</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1864</t>
+          <t>0.0864</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1479,796 +1113,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>32.39</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>98.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0883</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001480</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通成长优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7510</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501085</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>14.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5996</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2699</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009062</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2204</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1702</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1450</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>65.96</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1399</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510081</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长盛动态精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>73.58</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1357</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004265</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>金鹰民丰回报定期开放混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>28.62</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1197</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>69.43</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1084</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0876</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>160323</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏磐泰混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>28.77</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0690</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011284</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中信保诚龙腾精选混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>78.02</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0564</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011351</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金鹰年年邮益一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0406</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0380</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006522</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>87.24</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011352</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金鹰年年邮益一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006523</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>87.24</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +1516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +1537,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2693,36 +1567,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006736</t>
+          <t>007689</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银先进制造混合</t>
+          <t>国投瑞银新能源混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.36</t>
+          <t>81.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5758</t>
+          <t>2.9148</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2731,36 +1605,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>45.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1638</t>
+          <t>1.9429</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2769,36 +1643,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>006736</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>国投瑞银先进制造混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>43.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1564</t>
+          <t>1.4723</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2807,36 +1681,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>24.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>79.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>1.2500</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2845,36 +1719,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>770001</t>
+          <t>007690</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦优化灵活配置混合</t>
+          <t>国投瑞银新能源混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>33.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0864</t>
+          <t>1.1864</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2883,36 +1757,796 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>001704</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>国投瑞银进宝灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>32.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>1.0883</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5996</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2926,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2947,7 +2581,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2977,36 +2611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>007449</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>兴全多维价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>21.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>81.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.5843</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3015,36 +2649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013774</t>
+          <t>206008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达趋势优选混合A</t>
+          <t>鹏华丰盛债券</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>23.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.40</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.2967</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3053,36 +2687,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>160612</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>鹏华丰收债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>22.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>22.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.2957</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3091,36 +2725,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009263</t>
+          <t>007450</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝红利精选混合A</t>
+          <t>兴全多维价值混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>81.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0716</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3129,36 +2763,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013775</t>
+          <t>000054</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达趋势优选混合C</t>
+          <t>鹏华双债增利债券</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.40</t>
+          <t>22.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3167,36 +2801,226 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010841</t>
+          <t>160323</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝红利精选混合C</t>
+          <t>华夏磐泰混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>22.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0539</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>51.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>51.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3210,128 +3034,304 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009459</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信季安鑫3个月持有期债券C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>675053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得合赢债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>675093</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得祥逸债券C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.17</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.22</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>1.53</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>012977</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>瑞达鑫红量化6个月持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013774</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达趋势优选混合A</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.40</t>
+          <t>98.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>000788</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>前海开源中国成长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>88.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -753,112 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009263</t>
+          <t>012978</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝红利精选混合A</t>
+          <t>瑞达鑫红量化6个月持有混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013775</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达趋势优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>70.40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -923,36 +864,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006736</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银先进制造混合</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.36</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5758</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -961,36 +902,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>013774</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>易方达趋势优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>70.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1638</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -999,36 +940,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1564</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1037,36 +978,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1075,36 +1016,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>770001</t>
+          <t>013775</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦优化灵活配置混合</t>
+          <t>易方达趋势优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>70.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0864</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1113,36 +1054,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1151,6 +1092,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1638</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2554,7 +2779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3028,7 +3253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600596-新安股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.22</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>12.9</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>1.53</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,290 +949,6 @@
       </c>
       <c r="H5" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013774</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达趋势优选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013775</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达趋势优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>70.40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1148,36 +1013,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006736</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银先进制造混合</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.36</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5758</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1186,36 +1051,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>013774</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>易方达趋势优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>70.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1638</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1224,36 +1089,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1564</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1262,36 +1127,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1300,36 +1165,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>770001</t>
+          <t>013775</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦优化灵活配置混合</t>
+          <t>易方达趋势优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>70.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0864</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1338,36 +1203,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1376,6 +1241,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1638</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2779,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3253,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
